--- a/Work hours.xlsx
+++ b/Work hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtteR\PycharmProjects\maler1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F7347-BFD3-468B-BA49-6EDC3D2641F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95152BF3-AB7E-4B7A-A68D-5A7005DB8D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="3270" windowWidth="31125" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d\.m\.yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -91,8 +91,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -376,7 +376,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
         <v>44479</v>
       </c>
       <c r="B3" s="2">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>

--- a/Work hours.xlsx
+++ b/Work hours.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtteR\PycharmProjects\maler1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95152BF3-AB7E-4B7A-A68D-5A7005DB8D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04420592-B371-412B-95DE-CE2109820B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="3270" windowWidth="31125" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hours</t>
   </si>
@@ -40,6 +49,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Adding the forced columns, convertable values</t>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +431,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="A4" s="4">
+        <v>44494</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>

--- a/Work hours.xlsx
+++ b/Work hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtteR\PycharmProjects\maler1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04420592-B371-412B-95DE-CE2109820B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE970F8F-7354-4622-B459-EE49037F3BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39210" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>hours</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Adding the forced columns, convertable values</t>
+  </si>
+  <si>
+    <t>Adding more columns, Almost ready. Virhetilanteiden lisäilyä</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +445,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="A5" s="4">
+        <v>44496</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>

--- a/Work hours.xlsx
+++ b/Work hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtteR\PycharmProjects\maler1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE970F8F-7354-4622-B459-EE49037F3BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4504C0EB-E9AF-4DC3-9308-74F6D432F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="0" windowWidth="23175" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>hours</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Adding more columns, Almost ready. Virhetilanteiden lisäilyä</t>
+  </si>
+  <si>
+    <t>clear button, user manual and eliminating exceptions</t>
+  </si>
+  <si>
+    <t>yht</t>
   </si>
 </sst>
 </file>
@@ -391,7 +397,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +462,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="A6" s="4">
+        <v>44501</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -467,11 +481,14 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>24.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -502,9 +519,6 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
